--- a/Netflix_original/3_analysis_netflix_rate_in_imbd/netflix_original_종합_수정(sum).xlsx
+++ b/Netflix_original/3_analysis_netflix_rate_in_imbd/netflix_original_종합_수정(sum).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJH\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365inha-my.sharepoint.com/personal/kimjhq1_office_inha_ac_kr/Documents/0 정리/1 깃허브 업로드/Netflix_rate_analysis/Netflix_original/3_analysis_netflix_rate_in_imbd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3C9715-04EE-4FA2-B5ED-8021D6095BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{69BE12F3-1B75-442A-9311-7CAB89EA4F54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{16EF9FBE-4254-4519-B0C3-FA746ACACD37}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15111" uniqueCount="5525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15188" uniqueCount="5526">
   <si>
     <t>Title</t>
   </si>
@@ -16719,6 +16719,10 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -17150,8 +17154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="E422" sqref="E422"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25577,6 +25581,27 @@
       <c r="AB75" t="s">
         <v>3992</v>
       </c>
+      <c r="AE75" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>5525</v>
+      </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -25657,6 +25682,27 @@
       <c r="AB76" t="s">
         <v>3117</v>
       </c>
+      <c r="AE76" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>5525</v>
+      </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -26519,6 +26565,27 @@
       <c r="AB84" t="s">
         <v>3071</v>
       </c>
+      <c r="AE84" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>5525</v>
+      </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
@@ -26599,6 +26666,27 @@
       <c r="AB85" t="s">
         <v>3071</v>
       </c>
+      <c r="AE85" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>5525</v>
+      </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
@@ -27464,6 +27552,27 @@
       <c r="AB93">
         <v>71</v>
       </c>
+      <c r="AE93" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>5525</v>
+      </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
@@ -43045,6 +43154,27 @@
       <c r="AB235" t="s">
         <v>3133</v>
       </c>
+      <c r="AE235" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG235" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH235" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ235" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK235" t="s">
+        <v>5525</v>
+      </c>
     </row>
     <row r="236" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
@@ -58195,6 +58325,27 @@
       <c r="AB373">
         <v>177</v>
       </c>
+      <c r="AE373" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF373" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG373" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH373" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI373" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ373" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK373" t="s">
+        <v>5525</v>
+      </c>
     </row>
     <row r="374" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
@@ -64209,13 +64360,27 @@
       </c>
       <c r="AC428" s="2"/>
       <c r="AD428" s="2"/>
-      <c r="AE428" s="2"/>
-      <c r="AF428" s="2"/>
-      <c r="AG428" s="2"/>
-      <c r="AH428" s="2"/>
-      <c r="AI428" s="2"/>
-      <c r="AJ428" s="2"/>
-      <c r="AK428" s="2"/>
+      <c r="AE428" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF428" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG428" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH428" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI428" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ428" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK428" t="s">
+        <v>5525</v>
+      </c>
       <c r="AL428" s="2"/>
     </row>
     <row r="429" spans="1:38" x14ac:dyDescent="0.3">
@@ -75490,6 +75655,27 @@
       <c r="AB531" t="s">
         <v>3075</v>
       </c>
+      <c r="AE531" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF531" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG531" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH531" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI531" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ531" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK531" t="s">
+        <v>5525</v>
+      </c>
     </row>
     <row r="532" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
@@ -76996,13 +77182,27 @@
       </c>
       <c r="AC545" s="2"/>
       <c r="AD545" s="2"/>
-      <c r="AE545" s="2"/>
-      <c r="AF545" s="2"/>
-      <c r="AG545" s="2"/>
-      <c r="AH545" s="2"/>
-      <c r="AI545" s="2"/>
-      <c r="AJ545" s="2"/>
-      <c r="AK545" s="2"/>
+      <c r="AE545" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF545" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG545" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH545" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI545" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ545" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK545" t="s">
+        <v>5525</v>
+      </c>
       <c r="AL545" s="2"/>
     </row>
     <row r="546" spans="1:38" x14ac:dyDescent="0.3">
@@ -79712,13 +79912,27 @@
       </c>
       <c r="AC570" s="2"/>
       <c r="AD570" s="2"/>
-      <c r="AE570" s="2"/>
-      <c r="AF570" s="2"/>
-      <c r="AG570" s="2"/>
-      <c r="AH570" s="2"/>
-      <c r="AI570" s="2"/>
-      <c r="AJ570" s="2"/>
-      <c r="AK570" s="2"/>
+      <c r="AE570" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AF570" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AG570" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AH570" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AI570" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AJ570" t="s">
+        <v>5525</v>
+      </c>
+      <c r="AK570" t="s">
+        <v>5525</v>
+      </c>
       <c r="AL570" s="2"/>
     </row>
     <row r="571" spans="1:38" x14ac:dyDescent="0.3">
